--- a/biology/Microbiologie/Milieu_Moeller/Milieu_Moeller.xlsx
+++ b/biology/Microbiologie/Milieu_Moeller/Milieu_Moeller.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le milieu de Moeller est un milieu de culture permettant la recherche de 3 enzymes :
 l'ornithine décarboxylase s'il contient de l'ornithine ;
@@ -514,7 +526,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Extrait de levure : 3 g
 L-ornithine (monochlorhydrate)
@@ -555,7 +569,9 @@
           <t>Ensemencement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ensemencer le milieu avec une suspension. On peut recouvrir le milieu de paraffine ou de vaseline (anaérobiose) mais ce n'est pas indispensable pourvu de faire la lecture en bas du tube. Incuber 24 h à 37 °C.
 </t>
@@ -586,13 +602,85 @@
           <t>Lecture et interprétation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le milieu est pourpre (bromocrésol pourpre, indicateur de pH) avant l’ensemencement.
-Premier temps : utilisation du glucose
-Le glucose est utilisé par fermentation dans le bas du tube (favorisée par l'anaérobiose) ce qui provoque l'acidification du milieu d'où le passage au jaune du milieu. Mais le glucose est rapidement utilisé car en faible concentration.
-Second temps : utilisation de l'acide aminé
-Si la bactérie n'a de décarboxylase ou de dihydrolase de l'arginine : elle fermente les acides aminés en produisant du CO2 acidifiant et de l'ammoniac alcalinisant. Leur neutralisation respective laisse le milieu acide et donc jaune.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le milieu est pourpre (bromocrésol pourpre, indicateur de pH) avant l’ensemencement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Milieu_Moeller</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Milieu_Moeller</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Lecture et interprétation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Premier temps : utilisation du glucose</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le glucose est utilisé par fermentation dans le bas du tube (favorisée par l'anaérobiose) ce qui provoque l'acidification du milieu d'où le passage au jaune du milieu. Mais le glucose est rapidement utilisé car en faible concentration.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Milieu_Moeller</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Milieu_Moeller</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Lecture et interprétation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Second temps : utilisation de l'acide aminé</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Si la bactérie n'a de décarboxylase ou de dihydrolase de l'arginine : elle fermente les acides aminés en produisant du CO2 acidifiant et de l'ammoniac alcalinisant. Leur neutralisation respective laisse le milieu acide et donc jaune.
 Si la bactérie possède décarboxylase ou dihydrolase, la production d'amine basique provoque l'alcalinisation du milieu qui passe au violet.
 La photographie montre le résultat de Serratia marcescens, souche qui est ici, dans l'ordre des tubes, ADH -, ODC + et LDC +.
 Remarques : 
